--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I23"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -68,19 +67,15 @@
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${UserInfoUtils.getBindedCardUser(user_name)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户通过用户名登录成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -430,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="A4" sqref="A4:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -445,7 +440,7 @@
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -476,11 +471,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -428,7 +429,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>用户通过用户名登录成功</t>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -426,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -437,11 +449,12 @@
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,13 +465,16 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -468,11 +484,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -482,7 +501,10 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="3615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13245" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,31 +63,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(user_name)}</t>
+  </si>
+  <si>
+    <t>it789123</t>
+  </si>
+  <si>
+    <t>用户通过用户名登录成功</t>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBindedCardUser(user_name)}</t>
-  </si>
-  <si>
-    <t>it789123</t>
-  </si>
-  <si>
-    <t>用户通过用户名登录成功</t>
-  </si>
-  <si>
-    <t>checkCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8888</t>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +437,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -465,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -479,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -493,19 +489,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13245" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12240" windowHeight="4830"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>${UserInfoUtils.getBindedCardUser(user_name)}</t>
-  </si>
-  <si>
     <t>it789123</t>
   </si>
   <si>
@@ -79,11 +76,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -481,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -492,16 +493,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12240" windowHeight="4830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11160" windowHeight="3810"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -80,11 +80,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBindedCardUser(user_name)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +492,7 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11160" windowHeight="3810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="1575"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -80,11 +80,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${UserInfoUtils.getBindedCardUser(user_name)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBindedCardUser(user_name)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +438,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13380" windowHeight="1575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,9 +62,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>it789123</t>
-  </si>
-  <si>
     <t>用户通过用户名登录成功</t>
   </si>
   <si>
@@ -85,6 +78,18 @@
   </si>
   <si>
     <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +443,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -456,16 +461,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -476,13 +481,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -490,19 +495,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/portal/LoginSuccess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +447,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -478,7 +482,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
